--- a/medicine/Psychotrope/Château_de_Pressac_(Gironde)/Château_de_Pressac_(Gironde).xlsx
+++ b/medicine/Psychotrope/Château_de_Pressac_(Gironde)/Château_de_Pressac_(Gironde).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pressac_(Gironde)</t>
+          <t>Château_de_Pressac_(Gironde)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Pressac est un domaine viticole situé sur la commune de Saint-Étienne-de-Lisse, en Gironde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pressac_(Gironde)</t>
+          <t>Château_de_Pressac_(Gironde)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est bâti au Moyen Âge, sans date précise.
-Le 20 juillet 1453 est signée dans les murs du château la reddition des Anglais après la bataille de Castillon qui met fin à la Guerre de Cent Ans[1].
-Jean de Sansart en est le propriétaire en 1523 et sa famille le conserve jusqu'au début du XVIIIe siècle[2]. Il est racheté par Maximin Josselin en 1860[3].
-En 1997, il est acquis par Jean-François et Dominique Quénin[4].
+Le 20 juillet 1453 est signée dans les murs du château la reddition des Anglais après la bataille de Castillon qui met fin à la Guerre de Cent Ans.
+Jean de Sansart en est le propriétaire en 1523 et sa famille le conserve jusqu'au début du XVIIIe siècle. Il est racheté par Maximin Josselin en 1860.
+En 1997, il est acquis par Jean-François et Dominique Quénin.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pressac_(Gironde)</t>
+          <t>Château_de_Pressac_(Gironde)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Vin et vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé à la limite de l’appellation, le château est promu grand cru classé de Saint-Émilion en 2012[5]. Les cépages plantés sont le merlot, le cabernet franc, le cabernet sauvignon, le malbec (également nommé le "noir de Pressac"[6]), le carménère et le petit verdot.
-La propriété s'étend en 1997 sur 36 ha[4] pour passer en 2021 à 47 ha dont 41 ha de vignes[7].
-Le domaine produit entre 150 000 et 200 000 bouteilles par an[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé à la limite de l’appellation, le château est promu grand cru classé de Saint-Émilion en 2012. Les cépages plantés sont le merlot, le cabernet franc, le cabernet sauvignon, le malbec (également nommé le "noir de Pressac"), le carménère et le petit verdot.
+La propriété s'étend en 1997 sur 36 ha pour passer en 2021 à 47 ha dont 41 ha de vignes.
+Le domaine produit entre 150 000 et 200 000 bouteilles par an.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pressac_(Gironde)</t>
+          <t>Château_de_Pressac_(Gironde)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dessiné par un architecte de Fronsac, un nouveau chai de vinification est inauguré en 2021[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dessiné par un architecte de Fronsac, un nouveau chai de vinification est inauguré en 2021.
 	Le château au XXe siècle
 			Cour intérieure.
 			Coté Sud.
